--- a/Practice_Linear_Regression/LR_test_data.xlsx
+++ b/Practice_Linear_Regression/LR_test_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jch/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jch/Documents/github/Study/Statistics_for_Archaeologists/Practice_Linear_Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C48F5789-C8FE-5C46-A178-4E22A95D46DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14DFD7D-A8C4-454D-8CCC-A03BC9122FDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{555D3323-8089-FA40-9460-B16A1CDD2485}"/>
   </bookViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A245243-EB34-BF44-911E-6ECAE730B52D}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -704,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>41000</v>
+        <v>8900</v>
       </c>
       <c r="D6" s="1">
         <v>60</v>
@@ -724,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>42300</v>
+        <v>8800</v>
       </c>
       <c r="D7" s="1">
         <v>90</v>
@@ -844,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>36000</v>
+        <v>7600</v>
       </c>
       <c r="D13" s="1">
         <v>120</v>
@@ -884,7 +884,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>34300</v>
+        <v>7000</v>
       </c>
       <c r="D15" s="1">
         <v>110</v>
@@ -964,7 +964,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>28000</v>
+        <v>9100</v>
       </c>
       <c r="D19" s="1">
         <v>120</v>
